--- a/medicine/Enfance/The_Owl_and_the_Pussycat/The_Owl_and_the_Pussycat.xlsx
+++ b/medicine/Enfance/The_Owl_and_the_Pussycat/The_Owl_and_the_Pussycat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Owl and the Pussycat est un célèbre poème d'Edward Lear basé sur le non-sens et publié en 1871. Sa caractéristique principale est l'utilisation de l'expression runcible spoon (en) (cuillère à long manche ? à manche coudé ?).
-En France, ce poème est paru pour la première fois en 1966 sous le titre : Minette et le hibou[1]. Il a été rédité en 1994 sous le titre Féline et le hibou.
+En France, ce poème est paru pour la première fois en 1966 sous le titre : Minette et le hibou. Il a été rédité en 1994 sous le titre Féline et le hibou.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Le poème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lear écrivit le poème pour Janet Symonds, la fille de son ami, le poète John Addington Symonds, et de sa femme Catherine.
 Il met en scène quatre animaux anthropomorphes, le Hibou, la Chatte, le Porcelet et le Dindon, raconte les amours des deux premiers, leur rencontre avec le troisième et leur mariage par le quatrième.
@@ -550,7 +564,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'histoire a été mise en musique à maintes reprises, notamment par Igor Stravinsky et Laurie Anderson et a fait l'objet de nombreux films d'animation : 
 1948 : version composée par Elton Hayes (en) et enregistrée en 1953 par Parlophone. Elle devint un succès de l'émission de la BBC Radio, Children's Favourites (en).
@@ -594,13 +610,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En France
-Parutions en France selon la Bibliothèque nationale de France.
-1966 : Minette et le hibou (The Owl and the pussy-cat)[1] Paris : OZ-Whitman O.D.E.J., coll. : « Collection Vermeil » no 10, illustré par W. Wiesner. Rééditions en 1970 et 1979 : Paris : Éditions des Deux coqs d'or, coll. : Praline[2]
-1978 : Le Hibou et la minouchette (The Owl and the pussy-cat) Traduit par Henri Parisot ; illustrations de Gwen Fulton ; Paris : Flammarion[3]
-1994 : Féline et le hibou (The Owl and the pussy-cat) Illustré par Jan Brett, adapté par Marianne Cockenpot ; Paris : Gautier-Languereau,  (ISBN 2-01-390439-8).
-Au Canada
-2008 : Sire Hibou et dame Chat Traduit par Lucie Papineau ; illustrations de Stéphane Jorisch, Saint-Lambert (Québec) : Dominique et compagnie,  (ISBN 978-2-89512-700-0).</t>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parutions en France selon la Bibliothèque nationale de France.
+1966 : Minette et le hibou (The Owl and the pussy-cat) Paris : OZ-Whitman O.D.E.J., coll. : « Collection Vermeil » no 10, illustré par W. Wiesner. Rééditions en 1970 et 1979 : Paris : Éditions des Deux coqs d'or, coll. : Praline
+1978 : Le Hibou et la minouchette (The Owl and the pussy-cat) Traduit par Henri Parisot ; illustrations de Gwen Fulton ; Paris : Flammarion
+1994 : Féline et le hibou (The Owl and the pussy-cat) Illustré par Jan Brett, adapté par Marianne Cockenpot ; Paris : Gautier-Languereau,  (ISBN 2-01-390439-8).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Owl_and_the_Pussycat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Owl_and_the_Pussycat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parutions en français</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au Canada</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2008 : Sire Hibou et dame Chat Traduit par Lucie Papineau ; illustrations de Stéphane Jorisch, Saint-Lambert (Québec) : Dominique et compagnie,  (ISBN 978-2-89512-700-0).</t>
         </is>
       </c>
     </row>
